--- a/data/trans_orig/P23_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P23_R2-Edad-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma tabaco actualmente, de forma diaria o puntualmente en 2007</t>
+          <t>Población que fuma tabaco actualmente, de forma diaria o puntual en 2007</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3533,7 +3533,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma tabaco actualmente, de forma diaria o puntualmente en 2012</t>
+          <t>Población que fuma tabaco actualmente, de forma diaria o puntual en 2012</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6520,7 +6520,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma tabaco actualmente, de forma diaria o puntualmente en 2016</t>
+          <t>Población que fuma tabaco actualmente, de forma diaria o puntual en 2016</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -9507,7 +9507,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma tabaco actualmente, de forma diaria o puntualmente en 2023</t>
+          <t>Población que fuma tabaco actualmente, de forma diaria o puntual en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
